--- a/files/priority.xlsx
+++ b/files/priority.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
-    <t xml:space="preserve">pembe</t>
+    <t xml:space="preserve">kırmızı</t>
   </si>
   <si>
     <t xml:space="preserve">sarı</t>
@@ -50,7 +50,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -72,6 +72,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,12 +122,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -145,7 +155,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -171,7 +181,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="n">
@@ -194,7 +204,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="n">
@@ -217,7 +227,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="n">
@@ -240,7 +250,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="n">
@@ -263,7 +273,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="n">
@@ -286,7 +296,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="n">
